--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020121-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020121-2.xlsx_with_dialog_acts.xlsx
@@ -635,12 +635,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1679,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2607,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3731,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5127,12 +5127,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5487,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5887,12 +5887,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6167,12 +6167,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6287,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6487,12 +6487,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6683,12 +6683,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6923,12 +6923,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7123,12 +7123,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7515,12 +7515,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7635,12 +7635,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7867,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8303,12 +8303,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8383,12 +8383,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8423,12 +8423,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8583,12 +8583,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9103,12 +9103,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9143,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9263,12 +9263,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9809,12 +9809,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
